--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/18_Bitlis_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/18_Bitlis_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1ED705C-CB62-4BE9-8F5E-1B0175F6E5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92661A3D-9556-4FD8-9447-DAF69C48E0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{417413D2-A1EB-460D-B34B-5837A1137B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{92C83EEA-A80F-4418-A28B-ADAD9B8FEC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -942,13 +942,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{977BED9D-0FD4-4B88-B78A-6EE99A5EFA45}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AD70831B-1CC2-4982-BEB3-599B7000DFBB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{CA61443B-0974-47E1-8D32-D2CA784CE4D5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{96B961D1-CC9F-4FA7-A69F-46871FFDDE51}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E1858F59-9CEA-4C7E-B6F9-44EFA6363582}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{EE38D79C-F2C4-4A28-958F-BB35A351BA30}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2607F710-D479-40A9-A40F-09428CECD025}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9492F923-3158-4A05-A510-6DCF9F5F1E16}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{061B863B-6DDB-459D-9FE0-77736D252C07}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7D6A6D19-962C-41A0-812B-CB01774E5AAE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A363B79D-5A0E-4023-BC67-13737EFEDFE2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D8BB647E-A8E4-4D17-8CF2-089734EE2FF5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2AD832B8-BA6C-457B-903C-A3E0629E39F5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AA74155F-B4B7-4C8C-8C97-14DD0A79334D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F735F293-B8F0-4217-B51B-AD7CE67D0E2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60975550-FCE9-4D9B-A1B4-419822A21771}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2577,18 +2577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E847BB7-DE76-4589-A84F-2CB9430A45A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86B40B45-186C-4460-AE93-27AFBE9C5291}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E67CA5D-2930-4303-A5D9-D758B8E06482}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47220966-464F-4592-ABCB-0DBECC9A528E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{558608A9-D829-4E63-BEBC-C2CD7F5AFEE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BC63964-4956-45AA-946A-C056655C9B29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1B8DCBD-8818-43F4-A818-2755809DE347}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40F04709-0A37-4289-8056-AF9E14AD787F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35A2D308-A982-4859-82AF-7D61CB96905C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D12B4AAC-C524-422E-97B1-CAFFFC0EC1BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F34EE3DA-A72F-4328-874E-A411AF198650}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67797F25-4348-47BF-8612-908B191F39A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4189C827-4459-4D6E-A546-48CB14723964}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1290B6A5-AFC9-465E-BFCE-0133E32C425E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41BDCD5C-423E-499C-B4B3-80B05A62BF76}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C985E54-B7C1-4154-A8F3-D549EDD359A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60AB5331-BF8B-4970-8EC6-71196598780F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D50D533-F330-4FA6-B033-3CB5D1D8ACE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3955F1F3-301F-427D-837A-BE204BE3AD31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0F5AE02-1987-41D7-9FF2-EEB40F94CEE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2903166A-48A4-44F3-9D4A-8E60182C66EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6606119C-187D-4F5E-8765-3FE3EF6EBFBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29759C0C-AB28-4BFD-8FD4-112F09F9CF3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6992D25-1A47-4E34-921D-80513ECE9E4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4722D11-A6EF-4407-9DFD-2B218DC8A02A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7429B5-BD3F-432E-92A6-2E869749A47A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3843,18 +3843,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72218568-0379-4ACF-BEFD-E9FE0CDBEC4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8C830A5-2EBD-4B64-A02A-88C44FE40026}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75C6E3B5-7D23-4086-B92F-E92B1B2C4071}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0E527F16-AB73-43B5-A89D-D722B97A9059}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA46A96C-83B7-47DC-8740-8495865E4C4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3741B072-0839-41BC-A36B-2E5CDB892873}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BA02674-E971-4E92-A55C-833C049C58C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66E6E395-7CCA-46DB-A362-21164470DE6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E12F06E2-FFE2-4C42-9635-0EC01F5D57F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C6F0835-2C76-4874-BC80-F9ADC9C0E1FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BC2184F-CDC7-443F-BE94-8C75086A10AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00DFF12C-DB64-40B8-8269-FA368223E7B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9ABBE16-7542-43C6-84E9-4C989856D5CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D04CCBC-49B6-4798-9233-66C6108126CA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B56EB204-3191-4FB5-9CC6-666B0D7E415D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2669DF09-9F79-4436-91B7-F8A8C344B1B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECABDB4D-DD66-47A0-B0BC-27D669867E34}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91F64B23-86B6-46A5-B2AF-463C5825EB3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{601C449D-927C-475A-B4F0-7701E79416BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7E5C345-FA6B-4C1F-B1FE-8FE535993338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5D98A18-BE75-4E8B-BF7C-588B74B2DCDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D1BCF39-872C-49F9-AE15-8472ADC4D787}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA1DFF6B-E4F3-4608-B0F3-560F33DCECDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B752E5B-95B4-46D7-9388-54429E89219E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3867,7 +3867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467407CC-90E2-4834-A389-4DA6ECB750F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC986DC-53C3-4648-B272-6A241D980005}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5103,18 +5103,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B90DF8F-6483-413F-A1BE-851670CA5436}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCC493E3-ACF6-4D0B-B9BE-64722AD90CD8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{115F2353-91D2-4066-98C0-A1C47EE3B143}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6844C63-6759-4B0F-A372-4F71CF8393A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB71E15E-B0D0-4D9D-A3F0-4C6C3383D06F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D8C21F6-CBD9-4D3F-9D18-B0A852EE395A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1C42A89-D0B2-4037-BE26-2211A210B8E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{098EC644-5AF7-4525-B1DC-2E6EC4D481E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3034B38C-659D-4723-9189-1143FE137233}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{096BC517-0745-432B-812F-AE8EFA736858}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C44B419-5367-4ABE-B732-942D8E4807B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1A8EF9C6-F4DB-4931-9252-42AB04FF9C7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B71F37A-1342-41BA-A59E-0362F8985B8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44B59CB7-4E54-4427-B5C2-B9BABD3DC387}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{637E9434-4DAF-4EB2-B42A-0E891C13801C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5AE0FD17-150D-49D7-B655-A6A516C85C19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C920C5C-4BF9-4CCE-8B87-1FE26CF771F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82243643-DC88-49F5-98C2-AB19B0E7645D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{735EFCBB-BDA7-42D2-BB0C-02CE44D8D4CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{040F785F-3148-461C-9C85-6FDB76956AFD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2789A59-06B3-48EB-A2E2-35F3432F394E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A76E97A-DD7B-4090-9BA4-1C3A9863828F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D13791D3-A50F-45F9-B6D2-CF5899688F6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9743ECA-496D-4BCB-B2B4-D8857EF61417}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5127,7 +5127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47D8CE-291D-4B12-A03A-7F8D916B8943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A08F025-EB83-4A7B-A97B-72466B56C2B8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6355,18 +6355,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6B23079-5A2E-484B-8592-34ECACA4D602}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{202495E5-893A-4491-B88C-B3120FB8DDB4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FEBC7140-65BE-410F-A99B-C6E6ECC3FDD7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B32CA542-3174-4F65-B91E-0430A97E18D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C9685F8-B17B-4A0F-AF71-0B7D36BED44B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B00F0DF-E815-452F-9FB4-F5F291C0E79D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD60AF25-B396-419F-BB2E-62CD58A5264F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52CCD443-082F-48E8-A187-08F2EBD84ED6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A42EB5B5-3EAC-4EBE-8DF2-DE0D3BCBCE97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{775DEAE6-ADCE-4000-AF0F-538BBEB0DFA8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{079188D4-D5C9-4228-861E-48ED6FE08FB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61504AF8-DD23-47DA-B74B-C4ED1AE96F8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A5F3E18-5A3A-4421-8C22-19F33D7FE0A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D4239DA-FCFE-4B2B-BEF5-6AF84FFB2D59}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9171ACD-8D85-484E-8AF5-47AAB13B6D5E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE82EB65-37CD-4BDE-99F9-AE034124DC3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04D7F837-EC95-458A-A570-D7C1EC222A03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BF0BD99-FCA0-4894-9501-597B7FB96C77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3646D242-53E2-4FE2-8875-BFA46F75BBD6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{347BA75A-BB42-4D6A-B88D-FA946D653B3B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D527E1E-239E-48F4-8AF7-E95BAF8A37DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B665E9D7-B035-42F2-844B-192A78A6FDEF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D982B42-ACFD-41A5-8BBB-8747556198F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC1B7DA9-1224-4B10-8573-BCA33FA688D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6379,7 +6379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DD882D-6748-49FE-B7A2-2D44C316CDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A50E76-DEED-46FF-93E2-92D8F9935444}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7636,18 +7636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C97C631-7EF8-4A1B-A390-CC9D4F1F3BA0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDB8313B-C777-418B-9288-4FBE43AFFDAC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5847C4B-5857-41A3-91A1-E3CAB6D94165}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F62C89B-ACFD-45DE-BA24-0B9A7CB6168F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BF38A98-E94F-414A-8F81-29EAF6E56262}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8DAF4CF-B60A-42CE-8065-FD5AA1489803}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD1C8085-00EE-4470-839A-1DBB27A3575D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A719CBF2-DCFA-4221-9962-74512BD3033A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFCAF518-1E8B-4111-A138-FCB3926C4330}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AFC8722-4A2F-43C1-B2EC-9F03CD2B409B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1BB8689-7532-4A0A-A84C-F1DFDFE15B1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77DD3A5E-34AF-4028-A4AA-C1AC14FE3294}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47BA6B0D-68C0-4D2F-BA97-F0E199485CC7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20C24088-C0D6-4010-86D5-934AC9B90958}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3267B24D-C667-457C-9506-AEBA22B3A19E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84436435-7FCC-45AA-80FA-5F63E73178E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E443025D-25E4-4225-A053-C110EF634E9B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A2239C8-A7F7-4DFD-B0FC-3B4B8E330F3F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19F70202-904B-4490-99BD-CA00EC75DBC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA19118D-4AAB-42F2-A0F6-C4CBFEC0849E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A4EF5CE-DFDC-4EBA-9339-EBA42AA69E4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71BF0B0E-CBBD-4FDF-BAAB-D0631AF81A6D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF5D45CD-EE15-4A25-9AC7-93A2FF61FD0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{514F8236-5377-446B-8146-A4E222D6C6E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7660,7 +7660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA97D2A-D709-41AF-9B15-F6CD9B2ACA18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A3367F-71C9-4B81-AA6E-F53D414B04DE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8921,18 +8921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66EC22CD-1079-4452-90DA-48DF8CCE9FC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D96CEA60-69B4-496A-A59B-87F8F56767A8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F40E93A-B01A-49A2-8323-C6899A95014E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4740B442-A038-4B37-B953-8CF571FA4AA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C79B3C72-3A3B-4CBB-990C-AD33684414FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8103B0D7-7C2B-40F3-84DD-098983DC248C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{220E2CCD-953D-4393-B4D2-8075B31132EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3D6913B-8DB5-462C-81B4-96B0EA208A62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07EC36C6-9E25-48BB-9AB5-35EFACB576E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27896FF7-2EB4-41FF-B702-BEA735CB72BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71730B2A-E9DE-4BE9-BA07-DF31AA0D5858}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B94864FF-C768-4491-B017-A4F94DB70031}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FEF2D5C-8A8B-49A6-8A66-55776E23FECB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15DAA035-C7E6-4A85-932D-DE77C872A880}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5491DD5-3F2A-4E7C-9A1A-0FE6031F5098}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5294033-97D6-48FE-A2DA-3D0A7E61E4CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39B30523-2C3D-4B1F-B785-7A00006CF06F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F97D281-3496-4238-BDF3-D678A12270DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1CD825D-70F3-4BDE-8C79-3212C1232DB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9810D95F-0D3C-4218-805D-06952EF997E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{577E5DE4-5CE0-4432-B256-87672632A96E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01BEB6A0-F48C-4740-A036-CEEF12238EDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DE9618E-7759-45D7-AD87-97D1C0920441}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37AAC1EF-8774-46D6-8EC7-E462550001D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8945,7 +8945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123278C-7D1A-48AB-B7D2-EF6C212B00ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F4BF83-E010-49D2-AA1F-F2FED44554DD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10206,18 +10206,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4955789B-5054-430D-9F65-214743A0639B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E58B09C-95DB-41DA-9809-1AE2D2C7E506}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{557211EE-54CE-496D-9A89-138D1DFCE825}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{88D366E6-A8CC-4DA6-B73A-B0382AB6DE3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{975C8636-6080-4899-9C57-CEC43E7596BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCF259E9-2B54-4AF8-9A8D-8C780194C6D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBE732BB-BE5D-422C-BFF4-202F6B7655C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{640E9B3F-B6B8-4C87-8E84-C22F3B3FE780}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB3190EB-7BF0-4789-A6E2-8029DE0E6903}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B2DD6C6-9F82-4A31-A194-E41663C94701}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69415794-3FBA-4F83-BCC4-4FA797238C38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DDEE2A0-B842-4F9B-A151-049A88077C17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99E3D2ED-FF4D-44B1-A5AE-2B981283C3F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{780B82B3-FEE1-4285-9D17-640441AB18F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0477F840-9CA2-406B-9B19-39599118E37A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF669A92-D848-46AB-B4D2-51220DCC40D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA0C3FEB-0793-4984-9828-41B3D672474A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1E970E4-46C1-4190-8588-A53A14B9FCF3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDB3340B-CC63-460B-9FAF-077B670B1776}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10F17958-2717-4E5F-84CE-6EAB26CB6B25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{234CF8BA-C238-4D88-BAF0-5AC7FB278EFF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74AC9C3A-1E87-4D9C-9AC5-A8135DD4FE4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18733EB1-87D1-408F-AA37-25D2F9B408AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{939406A0-F796-441C-AE0D-FE6DCCAF30E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10230,7 +10230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1AB514-968A-484B-81D9-FA720198AC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B80D0D-9EEC-40AF-B7B1-537361EEF9A1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11487,18 +11487,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70CC8113-0F84-4041-BCDA-301CC99B30B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{814293FB-C754-4BE8-897C-7E1988AB7158}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E9D25C60-464A-4ABB-B9C9-635598BBC35E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{431D6EED-AE58-40FB-862C-BD5387434986}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F51FDB2D-D5A5-40F7-80DA-6103647EA9EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9157ABE3-3E25-4464-8F10-F14F1EB90D98}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E14511FF-AF1F-4CE7-90A9-DE697E051CEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE3CB7BB-2E2E-400A-8951-5F6947D26BEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14E05C75-F3F5-4B73-9589-117AC608CF46}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0F7125D-3FD0-4220-B655-C01E216BF0A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E79FA759-6FC1-4628-8ADC-C31EC0CF4331}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1484B5AB-80C0-4E4F-9DCD-EBC24BAB337F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F661300E-4F9A-4F4D-A2E3-505E547BA699}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF3DBB16-2E8B-4CD3-B72F-9461F4C61730}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{59F469CC-4C8B-482F-93BA-E08FE3987A23}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D89DD45A-DE82-4315-8D7A-BE612BB891B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F5B7B84-9AF8-4368-AEDC-6B2FE1E4892B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB5AA332-DBC1-46BA-B294-BCE21BD52486}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49643EEC-80C5-4128-BB3C-288363FB8846}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A82D2C8-DA82-4DB0-A5BF-5C6838D18C65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC8037A3-7C74-420D-9E8C-9BA12C0B4858}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D16823D-863F-40D1-99D1-490E0F4CE62A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A450117F-474E-4B71-AC03-A0A1D46F7165}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D13534F6-46DB-4464-A0FC-ADFFD5C75977}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11511,7 +11511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708A0631-972A-4867-AF27-114FC4F172F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B85C73-C054-45CF-9884-4C8F5216F368}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12768,18 +12768,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FD64634-B07F-47B7-A9BC-72003B954B64}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74D8FF79-F5B9-44F2-A148-32716DDCB237}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F453809D-0288-4C4A-804E-2FA59B8B64B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2752298-E80B-4EF4-B822-468900D5E46A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{440F8FB4-5F8E-4414-B749-D5D95023809A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6B3C577-AF95-4082-ABB9-2EC7C04F5A41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56E58FE0-52C0-4452-B33B-83C91CABCE56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E005064-72A0-4157-AA0F-AB36C8E3F1BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D79F3BA-3B58-4604-B336-63D9E6CCE4A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C28D1EBA-C962-408B-A1A4-4066BA6F894F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34AABEA0-5B05-4921-ABA5-DE23624156DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45BDE28B-A9E0-40F7-8DBD-01577A72DD3D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1365E778-0939-44A8-AFA1-3F0D234C4626}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C44640C-3534-4AA5-AE9D-A6A048078D9C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE3FE283-77E6-41BC-AC41-DD6BB2A4D14D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D712FECB-5C48-4858-B9EA-782E55480656}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9035EAA4-8119-46ED-A4A8-26FB8751ECC7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34B3A206-A9A2-445F-969C-B6E460DDC618}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C323AC91-43AB-4257-95D6-B616C7BE09D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF92D73B-BCB9-45A3-9B99-7227B6F94704}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C445D21F-6B48-415E-B946-E329F408508E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C6EA927-4FFA-4F09-BC61-3D84F66EBA0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AAA8ADC-67EC-4F5A-8F07-509F24FD5485}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4886CF4A-2B9E-4703-95DC-7F13F4249C01}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12792,7 +12792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE09CB1-602B-4F40-9C72-9C5D3B159465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B425A751-1DAF-47FF-A129-A6263781E0E9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14051,18 +14051,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32DB2BED-ADBD-4D60-89D0-6E6C11CC0853}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C96575AA-5439-4118-8C1F-B1520E434DCA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85A7DEDA-5759-469C-92D1-D575F8A3CDF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE89C786-99FF-463B-9C11-17F998CB7616}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24C630C5-642C-423D-9D04-28908C93A22D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75D68860-4D23-41BF-A4EB-9BD02DA18101}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8C18286-6592-4343-9ABC-F56A26C33E81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F1C03EC-543D-4A30-9906-064C220CE008}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C3AD5F5-1966-4BDC-A05E-D7109DDA0399}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F47E5A3E-BA11-4CB2-B52F-30589A492D9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F87BB342-1E0D-4D1A-85E7-793306C6BC50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAB70980-84C6-4C45-BB5A-6CCCAC93D29D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{495602D8-DF01-48D1-B2B9-477918368EAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EC705AA-4DC1-4456-B7C1-EC5185907C0D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5232668F-2263-443B-9A4C-80F00C72E8FC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0F2F65EB-44D4-41C2-9030-4C1D564BABB7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D21CE84-64A5-4115-A933-95F1949D266B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80261C72-5629-4E33-A6DE-C00D8D2C37F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEC03291-3414-4B33-848B-F111663F1166}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9CAA2D49-C06A-4C7D-84DD-D8B73F655683}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FEE9808-BA4D-47F5-AEB4-1EAAE069BFDB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D76436C-76B2-4D77-A92F-7CA67C4738FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87CC8619-0A58-46DF-845A-FB22C90F5DE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94E3F522-E773-4E57-BFCD-7129433AE690}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14075,7 +14075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026606C-EABD-472D-9449-71E587235220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4768DEB-E42E-4DD5-A719-63A84B2DFC3A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15332,18 +15332,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8F00FC4-F0B2-4EA0-B11B-112FE0AA894C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CFAB361-A634-4422-A710-8868BA9649AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{513E1AC4-EB06-44BF-B316-FFC17790E82F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D1C2779-9F36-499B-AB96-5982B657094E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7FB9029-6709-42B7-9173-8DCCA7F4204D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD22576C-D15B-4860-9233-157A8997EEC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A71B3BDF-94BB-4229-BA22-50E251529F9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CA7B1DB-72FE-4FE7-81DE-F8493E52FEDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C478F2C5-A2B7-4B55-857A-18BC7801A8C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01C1262E-3CCC-4068-9FBA-B5F36A5831ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15504BC1-DBEE-4AB4-B02A-408ADF7C17E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31EB61D6-37F3-4EC4-877B-FF8834D45361}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22592525-D756-48E3-82D1-83661DBA563B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07FCD3FC-61A3-47F7-B6D1-BA6D0CC0554F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0ED43F2E-8413-4A54-B083-02231D4E720C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6EA81A1B-614E-40F0-8056-83D8FB8F470A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BCEDEC0D-3C6D-44AA-94B0-704240DDC1A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7AC6298A-DF8C-4AD4-B8D7-49D4008CC8CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06DD645C-C258-44A1-9766-5BC02EC36D9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94936AC7-3DFB-4694-A6C0-4DE189BDCFB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CA8B4E9-61E5-4C57-820C-7C5A8867BE5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B53A1284-1647-498C-9ED3-5EAEFFB969E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5A2FE3E-DA3F-4FF2-9B3E-BB01520D7443}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC666EEE-FF17-495E-9356-170874DBDFC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15356,7 +15356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF078E64-3515-471A-84A7-93B6E27D177F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93D62F2-9867-4F85-8247-AE5E1C63F523}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16617,18 +16617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A22DE3BC-D2EE-475D-B1A3-00E350F683DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C22E43A8-F09C-4A6E-A354-DB4F9B529288}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F192B842-2CD0-4283-88F6-F4112DCDD314}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FC48E5E-B0FF-4A4E-A795-35E53496EFEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8012354-71C5-4D66-A936-106D537A65B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F1D789E-328C-412D-8F24-9F2E514841DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B722D4AD-0B0A-4A9F-A694-434A13DF016A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76E21339-F460-4205-A932-EFC84CC0D2C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF7F0495-3021-43BC-A125-863BEF610FD7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{442748EE-6FB7-4840-9CA2-4DAEFFC3D979}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{570C8536-CBA4-4A7E-9A33-226C51944969}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDD43028-9CE6-49A1-9013-472FBEA3A203}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB146F3D-D349-4593-9C71-30A8FE2B3A3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBC65CBC-F420-4872-8F4E-C1B67C7047BF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D7421B2D-9D3D-4A4A-8389-462E933E1F4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DA773767-A393-4F3B-8E80-B3C9BD092CE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{40B5BCD9-20A9-4755-8BAE-70056D29191B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B73EC76F-2AE6-40C4-8C26-C9E06FFF6008}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FCCE260-B93E-435F-9153-F4CC8F6FC74C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65CF6CD5-F2A4-43CB-AC3A-8FDFA537F551}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29D84A36-50DA-4FA3-B98F-4AE41F6923ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6185CF62-82CA-4752-A078-EA2151C61052}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31B75340-D8BF-406F-A2F1-898F69964419}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D267CD81-2405-4467-BC83-6CCF3A025B57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
